--- a/base_ncm_imp.xlsx
+++ b/base_ncm_imp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ghpcbr-my.sharepoint.com/personal/compras_ghpc_com_br/Documents/Área de Trabalho/Projeto Calc-Importação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{F3E0E2C0-1212-41DE-AB57-D81143ED4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AC8D34-585B-406C-8024-96A890D41C7A}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{F3E0E2C0-1212-41DE-AB57-D81143ED4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E443440-E60A-45CE-A803-D8DACD6705DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F3A60253-5446-4A89-8639-9F9D3D2C0B62}"/>
   </bookViews>
@@ -105,7 +105,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7332B7F-3B84-4832-A819-D7FC5C2921D2}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +614,950 @@
         <v>0.18</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>84812090</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>39174090</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>72149910</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>84129090</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>84819090</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>73072900</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>84818092</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>84122190</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85045090</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>84123110</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>84129080</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>76081000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>84213990</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>90262010</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84813000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>74122000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>84818095</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>84669330</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>84811000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>85444200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>82034000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>39209990</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>84834090</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>84219910</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>73089010</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40169300</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>39173290</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90328981</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>39173900</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>90322000</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39269090</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>84141000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>82031090</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>84123190</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40169990</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>85381000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>84832000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.1497</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>90329099</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>84483390</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>84283990</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>84659400</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>39172290</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>84821010</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>73049019</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>84799090</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>76169900</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>73182300</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A9:A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_ncm_imp.xlsx
+++ b/base_ncm_imp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ghpcbr-my.sharepoint.com/personal/compras_ghpc_com_br/Documents/Área de Trabalho/Projeto Calc-Importação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{F3E0E2C0-1212-41DE-AB57-D81143ED4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E443440-E60A-45CE-A803-D8DACD6705DB}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{F3E0E2C0-1212-41DE-AB57-D81143ED4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F90B9D-4482-4C82-9A60-644B16928C68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F3A60253-5446-4A89-8639-9F9D3D2C0B62}"/>
   </bookViews>
@@ -105,7 +105,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -446,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7332B7F-3B84-4832-A819-D7FC5C2921D2}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F55"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,89 +1494,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>73049019</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>84799090</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>76169900</v>
-      </c>
-      <c r="B54" s="1">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>73182300</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E55" s="1">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A51">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
